--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_753.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_753.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_753.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_753.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>STR#</t>
   </si>
@@ -139,6 +139,165 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d4820065-r585114447-The_Bicycle_Hotel_Casino-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>32057</t>
+  </si>
+  <si>
+    <t>4820065</t>
+  </si>
+  <si>
+    <t>585114447</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>Uncooperative staff</t>
+  </si>
+  <si>
+    <t>1.) Very poor staff.2.) Uncooperative staff.3.) Good security.4.) Good ambiance.5.) Good architecture.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d4820065-r580924879-The_Bicycle_Hotel_Casino-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>580924879</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t>Nice room, but staff falls short</t>
+  </si>
+  <si>
+    <t>This place is the height of faux luxury. The rooms are quite nice, but there are some glaring inconsistencies and if they don't fix some of them it won't be nice for too much longer. For instance, there are no paper cups placed in the rooms, but I have had to return glasses to the front desk because they were absolutely filthy. In other words, no option for coffee or water if the maids don't do their job. Bathroom fixtures are very nice, but on one stay they had L'Occitane products (great) and on the next it was some house brand with their logo. (not great) Spa is nice, but restaurant leaves a lot to be desired. Like trained servers that don't just stand around and talk to each other but do stuff like bring you the bill in less than 20 minutes or see if you've finished your drink. I was with a friend who actually bought another friend a drink at the bar and was asking for a fresh beer for himself but the bartender walked away and didn't come back for at least 15 minutes. (They had another male bartender that was really good in fairness and has been there for both my visits.) The loud Mexican hip hop for breakfast was really obnoxious, and I'm not crazy about mariachi bands in hard surfaced rooms at dinner either, but that could just be me. Food is poor to mediocre, and healthy options limited, though the chicken kebab is pretty decent. However, again on the flip side, the valet service is prompt and excellent and the front desk staff very nice. I liked the spa on property as well.  The room maintenance is where I think they will eventually have problems. My first stay's room was great, next one had a power outlet next to the bed half yanked out of the wall and some kind of slash mark on the headboard. They also should have security bars or chains on the door, but I only had a single deadbolt. This is not very far from some not great neighborhoods, there should be more than that. On the other hand, again, they have lots of security out front and about the casino. I am just rating the hotel, not the casino, but it seemed pretty nice.  So all in all a really mixed bag. Rooms nice, housekeeping sometimes not great, front desk good, restaurant and bar poor. A good choice if you have to be in this area though. Honestly probably not a full four star, but I didn't think they deserved just three.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d4820065-r574238888-The_Bicycle_Hotel_Casino-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>574238888</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just Perfect. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is a little further out from LAX but worth the drive. Very reasonably priced, the rooms are spacious and the beds are very comfortable. For an extra $10 you can get a very delicious breakfast with hot and cold foods/drinks. The restaurant has specials all the time, we went to the taco night which included hand made tortillas. There's also an Asian restaurant in the hotel. All the staff where very helpful. The hotel also has a pool and spa which everyone needs to check out. This hotel is also a casino, with tables in two huge rooms. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d4820065-r572219522-The_Bicycle_Hotel_Casino-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>572219522</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family vacation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At first we were unsure if this hotel would be a good fit for us since we were traveling with children and we don’t gamble. However, we were comfortable throughout our entire stay. The casino seemed to be entirely separate from the hotel. The beds were very comfortable and our room was spacious. The breakfast buffet was awesome and is highly recommended. Pool was not big which I didn’t mind...fitness center is a great perk if you’re trying to fit in a quick workout during your stay (we did). Location also great- just a short drive to Los Angeles. The entire hotel was very clean. Happy we chose this hotel. P.S- there’s a Starbucks inside :) </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d4820065-r560487757-The_Bicycle_Hotel_Casino-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>560487757</t>
+  </si>
+  <si>
+    <t>02/14/2018</t>
+  </si>
+  <si>
+    <t>Really impressed</t>
+  </si>
+  <si>
+    <t>I stayed here with my family for two days on our way to Hawaii. I was really impressed with the customer service and the cleanliness of the room. Ordered room service while we were there the food was pretty good. I would recommend for your future stays!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d4820065-r559397097-The_Bicycle_Hotel_Casino-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>559397097</t>
+  </si>
+  <si>
+    <t>02/09/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reasonable value for a nice hotel near LA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are not gamblers so we were pleased that the hotel and casino (card rooms) are quite separate. The parking was a bit confusing, but our suite was gorgeous with a huge bathroom and shower. The hotel appears new, clean and is smoke free. The fitness room is well appointed. Great location with easy access to the freeway. Highly recommended. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d4820065-r557045727-The_Bicycle_Hotel_Casino-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>557045727</t>
+  </si>
+  <si>
+    <t>01/29/2018</t>
+  </si>
+  <si>
+    <t>Poker ( texas holdem )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They fixed up the place and renovated. Way bigger now :) more poker tables for play. Nice atmosphere and great food </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d4820065-r538702154-The_Bicycle_Hotel_Casino-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>538702154</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t>Our Getaway for R &amp; R</t>
+  </si>
+  <si>
+    <t>I've stayed here numerous times, so this review is long overdue. On the other hand, my procrastination could be due to not reveal how nice it is here and find the hotel booked the next time I really want to unwind here. I've only stayed in the Classic and Bicycle suites, so I can't offer any feedback on the standard rooms. When we stay here, we usually order room service and have always enjoyed a good meal. I believe it comes from the same kitchen as the restaurant, so I'm sure it should be the same quality. The service is great and we enjoy everyone that we've met along the way from valet to housekeeping and room service to the front desk. Did I mention how great the staff is at the front desk? I have become on a first name basis with the staff with my frequent visits and have had conversations with the GM, who have all been very accommodating to our needs (which can be special at times). The pool is great, however it is not large and I prefer that. The casino is well appointed and the atmosphere was nice the times we ventured out. Again the suites are why we really frequent here and will continue to be avid guests. If you ever visit LA and need to be in the downtown area, then this spot is close enough to enjoy a less chaotic setting. I highly recommend this place, but please don't spread the word too much to where i can't book a room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d4820065-r532431674-The_Bicycle_Hotel_Casino-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>532431674</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lovely hotel, not sure on the restaurant... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best night sleep I've had since arriving in America!A stylish and comfortable hotel.Really not sure on the restaurant, other guests shouting and screaming at TVs whilst I try to relax and eat dinner is not really ideal.Would stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d4820065-r531540838-The_Bicycle_Hotel_Casino-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>531540838</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>This hotel was located south of Los Angeles. The rooms were spacious and the bathroom was huge! And very CLEAN!I have to give it 4 stars beacuse I was Being charged 15.00 cover to watch a UFC fight that was showing at one of the bars. Being that I was staying there for a few nights I shouldn’t have to pay any cover. But overall it was a nice hotel</t>
   </si>
 </sst>
 </file>
@@ -633,6 +792,536 @@
         <v>40</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63718</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63718</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63718</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63718</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63718</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63718</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63718</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63718</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63718</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63718</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>